--- a/results/2023-12-11 14-27-53 - q=2, e=1, u=6, str=0.5.xlsx
+++ b/results/2023-12-11 14-27-53 - q=2, e=1, u=6, str=0.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erik.recio\Documents\GitHub\QCD\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211E0156-B0C3-4A96-B9AB-65F7541064C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869226A2-A6C4-4528-96F2-3DB901AE93FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="94">
   <si>
     <t>X</t>
   </si>
@@ -306,6 +306,15 @@
   </si>
   <si>
     <t>AVG</t>
+  </si>
+  <si>
+    <t>p_59</t>
+  </si>
+  <si>
+    <t>p_89</t>
+  </si>
+  <si>
+    <t>LOGISTIC REGRESSION</t>
   </si>
 </sst>
 </file>
@@ -761,15 +770,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,8 +803,26 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -814,8 +844,28 @@
       <c r="G2">
         <v>4.1705405764377708E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <f>IF($B2=1,2*C2-1,2*(1-C2)-1)</f>
+        <v>-0.50580000000000003</v>
+      </c>
+      <c r="S2">
+        <f>IF($B2=1,1/(1+EXP(-R2)),1-1/(1+EXP(-R2)))</f>
+        <v>0.62382138149888799</v>
+      </c>
+      <c r="T2">
+        <f>IF($B2=1,2*E2-1,2*(1-E2)-1)</f>
+        <v>-0.56859999999999999</v>
+      </c>
+      <c r="U2">
+        <f>IF($B2=1,1/(1+EXP(-T2)),1-1/(1+EXP(-T2)))</f>
+        <v>0.63844006973871847</v>
+      </c>
+      <c r="V2">
+        <f>(U2-S2)/S2</f>
+        <v>2.3434092952545806E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -837,8 +887,28 @@
       <c r="G3">
         <v>9.8579040852575475E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="0">IF($B3=1,2*C3-1,2*(1-C3)-1)</f>
+        <v>-0.35119999999999996</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:U66" si="1">IF($B3=1,1/(1+EXP(-R3)),1-1/(1+EXP(-R3)))</f>
+        <v>0.58690854551305449</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T66" si="2">IF($B3=1,2*E3-1,2*(1-E3)-1)</f>
+        <v>-0.48439999999999994</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="1"/>
+        <v>0.61878633100655178</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V66" si="3">(U3-S3)/S3</f>
+        <v>5.4314740749993456E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -860,8 +930,28 @@
       <c r="G4">
         <v>5.4645448162883178E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>-0.70920000000000005</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>0.67022436496167148</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="2"/>
+        <v>-0.80259999999999998</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="1"/>
+        <v>0.69053037145247598</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="3"/>
+        <v>3.0297326615342828E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -883,8 +973,28 @@
       <c r="G5">
         <v>5.5454751644363733E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>-0.76360000000000006</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>0.68213482195739661</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="2"/>
+        <v>-0.86139999999999994</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="1"/>
+        <v>0.70295307145380304</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="3"/>
+        <v>3.0519259281718138E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -906,8 +1016,28 @@
       <c r="G6">
         <v>3.2917278511992068E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>-0.63440000000000007</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>0.65348647827391204</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="2"/>
+        <v>-0.68819999999999992</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="1"/>
+        <v>0.66556638824029901</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="3"/>
+        <v>1.8485325049562261E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -929,8 +1059,28 @@
       <c r="G7">
         <v>1.7569742489270391E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>-0.49120000000000008</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>0.62038908090557154</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>-0.51740000000000008</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>0.62653959864682385</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="3"/>
+        <v>9.9139683958887476E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -952,8 +1102,28 @@
       <c r="G8">
         <v>2.4110587226746642E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>-0.86640000000000006</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>0.70399606114503954</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="2"/>
+        <v>-0.91139999999999999</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="1"/>
+        <v>0.7132865606045331</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="3"/>
+        <v>1.3196806022440945E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -975,8 +1145,28 @@
       <c r="G9">
         <v>4.9015773693129927E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>-0.53420000000000001</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>0.63046216141224731</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>-0.60939999999999994</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="1"/>
+        <v>0.64780392182320368</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="3"/>
+        <v>2.7506425400868607E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -998,8 +1188,28 @@
       <c r="G10">
         <v>3.9497307001795323E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>-0.89379999999999993</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>0.70967373624803165</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>-0.96859999999999991</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>0.72484036016396369</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="3"/>
+        <v>2.1371262794810955E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1021,8 +1231,28 @@
       <c r="G11">
         <v>8.2159296973078624E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>-0.43379999999999996</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>0.6067807073325191</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>-0.55160000000000009</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>0.63450672350946125</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="3"/>
+        <v>4.569363501820789E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1044,8 +1274,28 @@
       <c r="G12">
         <v>2.644818168750894E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>-0.39139999999999997</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>0.59661967531734583</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="2"/>
+        <v>-0.42819999999999991</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>0.60544376324028448</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="3"/>
+        <v>1.4790138991385192E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1067,8 +1317,28 @@
       <c r="G13">
         <v>4.0974010770311438E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>-0.70839999999999992</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>0.67004752195625361</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="2"/>
+        <v>-0.77839999999999998</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="1"/>
+        <v>0.68533517490206897</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="3"/>
+        <v>2.2815774172527219E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1090,8 +1360,28 @@
       <c r="G14">
         <v>9.3873115065887858E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>-0.47219999999999995</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>0.61590433453071525</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="2"/>
+        <v>-0.61040000000000005</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="1"/>
+        <v>0.64803204208781762</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="3"/>
+        <v>5.2163470454517732E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1113,8 +1403,28 @@
       <c r="G15">
         <v>-1.604170844194841E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>-0.99479999999999991</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>0.73003496901200804</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="2"/>
+        <v>-0.99160000000000004</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>0.72940383644467932</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="3"/>
+        <v>-8.6452374765397992E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1136,8 +1446,28 @@
       <c r="G16">
         <v>4.9132504222324288E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>-0.30259999999999998</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>0.57507798506884789</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="2"/>
+        <v>-0.30899999999999994</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="1"/>
+        <v>0.57664115372750635</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="3"/>
+        <v>2.7181855317784829E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1159,8 +1489,28 @@
       <c r="G17">
         <v>-9.2008412197691104E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>-0.52160000000000006</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>0.62752182364934361</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="2"/>
+        <v>-0.5202</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="1"/>
+        <v>0.62719453181291818</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="3"/>
+        <v>-5.2156247653998005E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1182,8 +1532,28 @@
       <c r="G18">
         <v>1.7569742489270391E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>-0.49120000000000008</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>0.62038908090557154</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="2"/>
+        <v>-0.51740000000000008</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="1"/>
+        <v>0.62653959864682385</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="3"/>
+        <v>9.9139683958887476E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1205,8 +1575,28 @@
       <c r="G19">
         <v>4.1705405764377708E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>-0.50580000000000003</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>0.62382138149888799</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="2"/>
+        <v>-0.56859999999999999</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="1"/>
+        <v>0.63844006973871847</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="3"/>
+        <v>2.3434092952545806E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1228,8 +1618,28 @@
       <c r="G20">
         <v>1.306772908366549E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>-0.25499999999999989</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="1"/>
+        <v>0.56340678626219365</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="2"/>
+        <v>-0.27140000000000009</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="1"/>
+        <v>0.567436570587732</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="3"/>
+        <v>7.1525306826229935E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1251,8 +1661,28 @@
       <c r="G21">
         <v>2.248693326850609E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>-0.64539999999999997</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="1"/>
+        <v>0.65597311579363327</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="2"/>
+        <v>-0.6823999999999999</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="1"/>
+        <v>0.6642741418657242</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="3"/>
+        <v>1.2654521766563381E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1274,8 +1704,28 @@
       <c r="G22">
         <v>4.294274300932098E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>-0.2016</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="1"/>
+        <v>0.55022999216992741</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="2"/>
+        <v>-0.25320000000000009</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="1"/>
+        <v>0.56296397259942843</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="3"/>
+        <v>2.3143014031791257E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1297,8 +1747,28 @@
       <c r="G23">
         <v>2.8176037900511101E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>-0.60420000000000007</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="1"/>
+        <v>0.64661661115129876</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="2"/>
+        <v>-0.64939999999999998</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="1"/>
+        <v>0.65687524131008757</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="3"/>
+        <v>1.5865089114434208E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1320,8 +1790,28 @@
       <c r="G24">
         <v>1.0886632471474891E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>-0.91060000000000008</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>0.71312292561789303</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="2"/>
+        <v>-0.93140000000000001</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="1"/>
+        <v>0.71735922880328928</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="3"/>
+        <v>5.9404950159548725E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1343,8 +1833,28 @@
       <c r="G25">
         <v>5.9556586002028573E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>-0.38020000000000009</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="1"/>
+        <v>0.59392133959646598</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="2"/>
+        <v>-0.46239999999999992</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="1"/>
+        <v>0.61358336819225279</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="3"/>
+        <v>3.3105442227662638E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1366,8 +1876,28 @@
       <c r="G26">
         <v>4.0974010770311438E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>-0.70839999999999992</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>0.67004752195625361</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="2"/>
+        <v>-0.77839999999999998</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="1"/>
+        <v>0.68533517490206897</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="3"/>
+        <v>2.2815774172527219E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1389,8 +1919,28 @@
       <c r="G27">
         <v>9.9223049530592453E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>-0.23560000000000003</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="1"/>
+        <v>0.55862905521830086</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="2"/>
+        <v>-0.35820000000000007</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="1"/>
+        <v>0.58860463508763283</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="3"/>
+        <v>5.3659185087711066E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1412,8 +1962,28 @@
       <c r="G28">
         <v>4.9015773693129927E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>-0.53420000000000001</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="1"/>
+        <v>0.63046216141224731</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="2"/>
+        <v>-0.60939999999999994</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="1"/>
+        <v>0.64780392182320368</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="3"/>
+        <v>2.7506425400868607E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1435,8 +2005,28 @@
       <c r="G29">
         <v>4.1690061763054391E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>-0.42480000000000007</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="1"/>
+        <v>0.60463127525539395</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="2"/>
+        <v>-0.48419999999999996</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="1"/>
+        <v>0.61873915192434981</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="3"/>
+        <v>2.3333025012635577E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1458,8 +2048,28 @@
       <c r="G30">
         <v>4.9214044366093689E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>-0.36139999999999994</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="1"/>
+        <v>0.58937929228394514</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="2"/>
+        <v>-0.42839999999999989</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="1"/>
+        <v>0.60549153855516213</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="3"/>
+        <v>2.7337652479745754E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1481,8 +2091,28 @@
       <c r="G31">
         <v>5.4645448162883178E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>-0.70920000000000005</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="1"/>
+        <v>0.67022436496167148</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="2"/>
+        <v>-0.80259999999999998</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="1"/>
+        <v>0.69053037145247598</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="3"/>
+        <v>3.0297326615342828E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1504,8 +2134,28 @@
       <c r="G32">
         <v>7.7122153209109715E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <f t="shared" si="0"/>
+        <v>-0.54560000000000008</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="1"/>
+        <v>0.63311415618116462</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="2"/>
+        <v>-0.66480000000000006</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="1"/>
+        <v>0.66033781616087595</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="3"/>
+        <v>4.2999607122860342E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1527,8 +2177,28 @@
       <c r="G33">
         <v>4.294274300932098E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <f t="shared" si="0"/>
+        <v>-0.2016</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="1"/>
+        <v>0.55022999216992741</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="2"/>
+        <v>-0.25320000000000009</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="1"/>
+        <v>0.56296397259942843</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="3"/>
+        <v>2.3143014031791257E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1550,8 +2220,28 @@
       <c r="G34">
         <v>1.0310500118511539E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <f t="shared" si="0"/>
+        <v>-0.68759999999999999</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="1"/>
+        <v>0.66543282231323808</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="2"/>
+        <v>-0.70500000000000007</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="1"/>
+        <v>0.66929540277744604</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="3"/>
+        <v>5.804613681033197E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1573,8 +2263,28 @@
       <c r="G35">
         <v>6.4341783554240179E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <f t="shared" si="0"/>
+        <v>-0.55420000000000003</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="1"/>
+        <v>0.63510947302532972</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="2"/>
+        <v>-0.56420000000000003</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="1"/>
+        <v>0.63742378119287935</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="3"/>
+        <v>3.6439515797575383E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1596,8 +2306,28 @@
       <c r="G36">
         <v>8.2159296973078624E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <f t="shared" si="0"/>
+        <v>-0.43379999999999996</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="1"/>
+        <v>0.6067807073325191</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="2"/>
+        <v>-0.55160000000000009</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="1"/>
+        <v>0.63450672350946125</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="3"/>
+        <v>4.569363501820789E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1619,8 +2349,28 @@
       <c r="G37">
         <v>7.0522866505200163E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <f t="shared" si="0"/>
+        <v>-0.40379999999999994</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="1"/>
+        <v>0.5996003075932822</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="2"/>
+        <v>-0.50279999999999991</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="1"/>
+        <v>0.62311711562111438</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="3"/>
+        <v>3.922080714438856E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1642,8 +2392,28 @@
       <c r="G38">
         <v>3.2688458972648347E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <f t="shared" si="0"/>
+        <v>-0.19920000000000004</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="1"/>
+        <v>0.54963597617032156</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="2"/>
+        <v>-0.23839999999999995</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="1"/>
+        <v>0.55931931682792491</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="3"/>
+        <v>1.7617734423196973E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -1665,8 +2435,28 @@
       <c r="G39">
         <v>8.2159296973078624E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <f t="shared" si="0"/>
+        <v>-0.43379999999999996</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="1"/>
+        <v>0.6067807073325191</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="2"/>
+        <v>-0.55160000000000009</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="1"/>
+        <v>0.63450672350946125</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="3"/>
+        <v>4.569363501820789E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1688,8 +2478,28 @@
       <c r="G40">
         <v>2.73844231570179E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <f t="shared" si="0"/>
+        <v>-0.92080000000000006</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="1"/>
+        <v>0.71520508316890385</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="2"/>
+        <v>-0.97340000000000004</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="1"/>
+        <v>0.72579667094471634</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="3"/>
+        <v>1.4809161770612247E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1711,8 +2521,28 @@
       <c r="G41">
         <v>5.0041470832181377E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <f t="shared" si="0"/>
+        <v>-0.44680000000000009</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="1"/>
+        <v>0.60987813646379929</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="2"/>
+        <v>-0.51920000000000011</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="1"/>
+        <v>0.62696068053672538</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="3"/>
+        <v>2.8009766298517015E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1734,8 +2564,28 @@
       <c r="G42">
         <v>4.0312421264802258E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <f t="shared" si="0"/>
+        <v>-0.5875999999999999</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="1"/>
+        <v>0.64281428497666981</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="2"/>
+        <v>-0.65159999999999996</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="1"/>
+        <v>0.65737092838495603</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="3"/>
+        <v>2.2645177228465815E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1757,8 +2607,28 @@
       <c r="G43">
         <v>0.23626289056487601</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <f t="shared" si="0"/>
+        <v>-0.29940000000000011</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="1"/>
+        <v>0.57429583527743944</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="2"/>
+        <v>-0.60640000000000005</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="1"/>
+        <v>0.6471191567017851</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="3"/>
+        <v>0.12680454384483755</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1780,8 +2650,28 @@
       <c r="G44">
         <v>9.7929205345303003E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <f t="shared" si="0"/>
+        <v>-0.9605999999999999</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="1"/>
+        <v>0.72324191903681345</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="2"/>
+        <v>-0.9798</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="1"/>
+        <v>0.72706853016703654</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="3"/>
+        <v>5.2909144637512543E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -1803,8 +2693,28 @@
       <c r="G45">
         <v>4.0312421264802258E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <f t="shared" si="0"/>
+        <v>-0.5875999999999999</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="1"/>
+        <v>0.64281428497666981</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="2"/>
+        <v>-0.65159999999999996</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="1"/>
+        <v>0.65737092838495603</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="3"/>
+        <v>2.2645177228465815E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -1826,8 +2736,28 @@
       <c r="G46">
         <v>2.248693326850609E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <f t="shared" si="0"/>
+        <v>-0.64539999999999997</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="1"/>
+        <v>0.65597311579363327</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="2"/>
+        <v>-0.6823999999999999</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="1"/>
+        <v>0.6642741418657242</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="3"/>
+        <v>1.2654521766563381E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -1849,8 +2779,28 @@
       <c r="G47">
         <v>9.3873115065887858E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <f t="shared" si="0"/>
+        <v>-0.47219999999999995</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="1"/>
+        <v>0.61590433453071525</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="2"/>
+        <v>-0.61040000000000005</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="1"/>
+        <v>0.64803204208781762</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="3"/>
+        <v>5.2163470454517732E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -1872,8 +2822,28 @@
       <c r="G48">
         <v>2.248693326850609E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <f t="shared" si="0"/>
+        <v>-0.64539999999999997</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="1"/>
+        <v>0.65597311579363327</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="2"/>
+        <v>-0.6823999999999999</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="1"/>
+        <v>0.6642741418657242</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="3"/>
+        <v>1.2654521766563381E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -1895,8 +2865,28 @@
       <c r="G49">
         <v>4.2899900232790097E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <f t="shared" si="0"/>
+        <v>-0.80420000000000003</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="1"/>
+        <v>0.69087218426248798</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="2"/>
+        <v>-0.88159999999999994</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="1"/>
+        <v>0.70715367065122348</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="3"/>
+        <v>2.3566568114355518E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -1918,8 +2908,28 @@
       <c r="G50">
         <v>2.805912948261698E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <f t="shared" si="0"/>
+        <v>-0.46120000000000005</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="1"/>
+        <v>0.61329881085905913</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="2"/>
+        <v>-0.50219999999999998</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="1"/>
+        <v>0.62297619991035569</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="3"/>
+        <v>1.5779239874509556E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -1941,8 +2951,28 @@
       <c r="G51">
         <v>5.9055118110236192E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <f t="shared" si="0"/>
+        <v>-0.47320000000000007</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="1"/>
+        <v>0.61614087328037437</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="2"/>
+        <v>-0.56020000000000003</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="1"/>
+        <v>0.63649881515939732</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="3"/>
+        <v>3.3041050775670731E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -1964,8 +2994,28 @@
       <c r="G52">
         <v>4.4952478808117168E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <f t="shared" si="0"/>
+        <v>0.55719999999999992</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="1"/>
+        <v>0.63580442711037022</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="2"/>
+        <v>0.62719999999999998</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="1"/>
+        <v>0.65185429991318822</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="3"/>
+        <v>2.524341152477046E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -1987,8 +3037,28 @@
       <c r="G53">
         <v>2.71021542738012E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R53">
+        <f t="shared" si="0"/>
+        <v>0.43900000000000006</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="1"/>
+        <v>0.60802072498536064</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="2"/>
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="1"/>
+        <v>0.61727549280679073</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="3"/>
+        <v>1.5221138755842436E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -2010,8 +3080,28 @@
       <c r="G54">
         <v>4.3554884189325231E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <f t="shared" si="0"/>
+        <v>0.58879999999999999</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="1"/>
+        <v>0.64308976262904771</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="2"/>
+        <v>0.65799999999999992</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="1"/>
+        <v>0.65881097319575344</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="3"/>
+        <v>2.4446370445138248E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -2033,8 +3123,28 @@
       <c r="G55">
         <v>1.2042916575432459E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R55">
+        <f t="shared" si="0"/>
+        <v>0.82679999999999998</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="1"/>
+        <v>0.69567788181518775</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="2"/>
+        <v>0.8488</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="1"/>
+        <v>0.7003153545180868</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="3"/>
+        <v>6.6661206631994504E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -2056,8 +3166,28 @@
       <c r="G56">
         <v>3.7208749405611162E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R56">
+        <f t="shared" si="0"/>
+        <v>0.6823999999999999</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="1"/>
+        <v>0.6642741418657242</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="2"/>
+        <v>0.74500000000000011</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="1"/>
+        <v>0.67808824955162761</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="3"/>
+        <v>2.0795793205353734E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -2079,8 +3209,28 @@
       <c r="G57">
         <v>-4.5339378583810616E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R57">
+        <f t="shared" si="0"/>
+        <v>0.49980000000000002</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="1"/>
+        <v>0.62241232930840684</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="2"/>
+        <v>0.4930000000000001</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="1"/>
+        <v>0.6208129005938251</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="3"/>
+        <v>-2.5697253079143617E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -2102,8 +3252,28 @@
       <c r="G58">
         <v>2.1374499035178979E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R58">
+        <f t="shared" si="0"/>
+        <v>0.34739999999999993</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="1"/>
+        <v>0.58598694402295304</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="2"/>
+        <v>0.37620000000000009</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="1"/>
+        <v>0.59295626319028505</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="3"/>
+        <v>1.1893301102386034E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>53</v>
       </c>
@@ -2125,8 +3295,28 @@
       <c r="G59">
         <v>-0.1074683916495149</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R59">
+        <f t="shared" si="0"/>
+        <v>0.36040000000000005</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="1"/>
+        <v>0.58913725932926952</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="2"/>
+        <v>0.21419999999999995</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="1"/>
+        <v>0.55334618825217285</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="3"/>
+        <v>-6.075166781650284E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>54</v>
       </c>
@@ -2148,8 +3338,28 @@
       <c r="G60">
         <v>3.8424124513618631E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R60">
+        <f t="shared" si="0"/>
+        <v>0.64480000000000004</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="1"/>
+        <v>0.65583769969264316</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="2"/>
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="1"/>
+        <v>0.66995908240575164</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="3"/>
+        <v>2.1531825205727623E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -2171,8 +3381,28 @@
       <c r="G61">
         <v>-7.0110701107011036E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R61">
+        <f t="shared" si="0"/>
+        <v>0.30079999999999996</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="1"/>
+        <v>0.57463807180449733</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="2"/>
+        <v>0.20960000000000001</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="1"/>
+        <v>0.55220900195314526</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="3"/>
+        <v>-3.9031646094940364E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>56</v>
       </c>
@@ -2194,8 +3424,28 @@
       <c r="G62">
         <v>1.180219520830862E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R62">
+        <f t="shared" si="0"/>
+        <v>0.69460000000000011</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="1"/>
+        <v>0.66698943721979531</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="2"/>
+        <v>0.7145999999999999</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="1"/>
+        <v>0.6714167937638148</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="3"/>
+        <v>6.6378210762587046E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>57</v>
       </c>
@@ -2217,8 +3467,28 @@
       <c r="G63">
         <v>3.9570378745054048E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R63">
+        <f t="shared" si="0"/>
+        <v>0.41520000000000001</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="1"/>
+        <v>0.60233408341603933</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="2"/>
+        <v>0.42080000000000006</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="1"/>
+        <v>0.60367466698134309</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="3"/>
+        <v>2.2256478625630048E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>58</v>
       </c>
@@ -2240,8 +3510,28 @@
       <c r="G64">
         <v>3.8194444444444441E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R64">
+        <f t="shared" si="0"/>
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="1"/>
+        <v>0.71111387512267399</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="2"/>
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="1"/>
+        <v>0.72579667094471645</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="3"/>
+        <v>2.06476013697659E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +3553,28 @@
       <c r="G65">
         <v>1.931993817619785E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R65">
+        <f t="shared" si="0"/>
+        <v>0.55279999999999996</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="1"/>
+        <v>0.63478496809474771</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="2"/>
+        <v>0.58279999999999998</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="1"/>
+        <v>0.64171143149460497</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="3"/>
+        <v>1.0911511374704468E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -2286,8 +3596,28 @@
       <c r="G66">
         <v>-1.9665394775462239E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R66">
+        <f t="shared" si="0"/>
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="1"/>
+        <v>0.58971806571650576</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="2"/>
+        <v>0.33600000000000008</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="1"/>
+        <v>0.58321854908403337</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="3"/>
+        <v>-1.1021396511866221E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>61</v>
       </c>
@@ -2309,8 +3639,28 @@
       <c r="G67">
         <v>3.8486209108402863E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R67">
+        <f t="shared" ref="R67:R101" si="4">IF($B67=1,2*C67-1,2*(1-C67)-1)</f>
+        <v>0.55899999999999994</v>
+      </c>
+      <c r="S67">
+        <f t="shared" ref="S67:U101" si="5">IF($B67=1,1/(1+EXP(-R67)),1-1/(1+EXP(-R67)))</f>
+        <v>0.63622112801980901</v>
+      </c>
+      <c r="T67">
+        <f t="shared" ref="T67:T101" si="6">IF($B67=1,2*E67-1,2*(1-E67)-1)</f>
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="5"/>
+        <v>0.64999108003512462</v>
+      </c>
+      <c r="V67">
+        <f t="shared" ref="V67:V101" si="7">(U67-S67)/S67</f>
+        <v>2.1643342870699005E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>62</v>
       </c>
@@ -2332,8 +3682,28 @@
       <c r="G68">
         <v>-2.438640654499696E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R68">
+        <f t="shared" si="4"/>
+        <v>0.27120000000000011</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="5"/>
+        <v>0.56738747946399881</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="6"/>
+        <v>0.24019999999999997</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="5"/>
+        <v>0.55976293553443435</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="7"/>
+        <v>-1.3437984103504082E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>63</v>
       </c>
@@ -2355,8 +3725,28 @@
       <c r="G69">
         <v>8.2900272209848157E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R69">
+        <f t="shared" si="4"/>
+        <v>0.61640000000000006</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="5"/>
+        <v>0.64939934264724652</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="6"/>
+        <v>0.62979999999999992</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="5"/>
+        <v>0.65244411141700853</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="7"/>
+        <v>4.688592318788232E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>64</v>
       </c>
@@ -2378,8 +3768,28 @@
       <c r="G70">
         <v>4.2997154600063293E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R70">
+        <f t="shared" si="4"/>
+        <v>0.89779999999999993</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="5"/>
+        <v>0.71049719221904151</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="6"/>
+        <v>0.97940000000000005</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="5"/>
+        <v>0.72698914700488471</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="7"/>
+        <v>2.321185075247819E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -2401,8 +3811,28 @@
       <c r="G71">
         <v>4.6641791044776159E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R71">
+        <f t="shared" si="4"/>
+        <v>0.71520000000000006</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="5"/>
+        <v>0.67154914991669323</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="6"/>
+        <v>0.72320000000000007</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="5"/>
+        <v>0.67331128928384576</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="7"/>
+        <v>2.623991657753007E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -2424,8 +3854,28 @@
       <c r="G72">
         <v>-1.4276649746193079E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R72">
+        <f t="shared" si="4"/>
+        <v>0.26079999999999992</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="5"/>
+        <v>0.56483293934391265</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="6"/>
+        <v>0.2589999999999999</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="5"/>
+        <v>0.56439045378367569</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="7"/>
+        <v>-7.8339191894674892E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -2447,8 +3897,28 @@
       <c r="G73">
         <v>2.2106953192540479E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R73">
+        <f t="shared" si="4"/>
+        <v>0.61939999999999995</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="5"/>
+        <v>0.65008207564486342</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="6"/>
+        <v>0.6552</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="5"/>
+        <v>0.65818131220590381</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="7"/>
+        <v>1.2458790765775494E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -2470,8 +3940,28 @@
       <c r="G74">
         <v>3.7894736842105273E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R74">
+        <f t="shared" si="4"/>
+        <v>0.80499999999999994</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="5"/>
+        <v>0.69104301241572275</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="6"/>
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="5"/>
+        <v>0.70545267444284021</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="7"/>
+        <v>2.0852047945242508E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>67</v>
       </c>
@@ -2493,8 +3983,28 @@
       <c r="G75">
         <v>2.2106953192540479E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R75">
+        <f t="shared" si="4"/>
+        <v>0.61939999999999995</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="5"/>
+        <v>0.65008207564486342</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="6"/>
+        <v>0.6552</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="5"/>
+        <v>0.65818131220590381</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="7"/>
+        <v>1.2458790765775494E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>69</v>
       </c>
@@ -2516,8 +4026,28 @@
       <c r="G76">
         <v>3.2062391681109227E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R76">
+        <f t="shared" si="4"/>
+        <v>0.61559999999999993</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="5"/>
+        <v>0.6492171770154882</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="6"/>
+        <v>0.66739999999999999</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="5"/>
+        <v>0.66092073146798802</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="7"/>
+        <v>1.802717929661404E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>70</v>
       </c>
@@ -2539,8 +4069,28 @@
       <c r="G77">
         <v>3.6883703424915287E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R77">
+        <f t="shared" si="4"/>
+        <v>0.59420000000000006</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="5"/>
+        <v>0.64432823939456629</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="6"/>
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="5"/>
+        <v>0.6576861870231604</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="7"/>
+        <v>2.0731588050751436E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>71</v>
       </c>
@@ -2562,8 +4112,28 @@
       <c r="G78">
         <v>4.4694044694044713E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R78">
+        <f t="shared" si="4"/>
+        <v>0.70940000000000003</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="5"/>
+        <v>0.67026856818974545</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="6"/>
+        <v>0.78580000000000005</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="5"/>
+        <v>0.68692879846631094</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="7"/>
+        <v>2.4856051838386621E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>72</v>
       </c>
@@ -2585,8 +4155,28 @@
       <c r="G79">
         <v>3.9651957737725348E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R79">
+        <f t="shared" si="4"/>
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="5"/>
+        <v>0.64771265482829532</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="6"/>
+        <v>0.67280000000000006</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="5"/>
+        <v>0.66212984224469351</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="7"/>
+        <v>2.2258616238121979E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>73</v>
       </c>
@@ -2608,8 +4198,28 @@
       <c r="G80">
         <v>1.3770491803278769E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R80">
+        <f t="shared" si="4"/>
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="5"/>
+        <v>0.62831618829536628</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="6"/>
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="5"/>
+        <v>0.63320706348158473</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="7"/>
+        <v>7.7840986390745135E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>74</v>
       </c>
@@ -2631,8 +4241,28 @@
       <c r="G81">
         <v>6.2447460069652728E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R81">
+        <f t="shared" si="4"/>
+        <v>0.66539999999999999</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="5"/>
+        <v>0.66047237828242622</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="6"/>
+        <v>0.67579999999999996</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="5"/>
+        <v>0.66280065720697146</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="7"/>
+        <v>3.5251722874467188E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>75</v>
       </c>
@@ -2654,8 +4284,28 @@
       <c r="G82">
         <v>4.1983433564053516E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R82">
+        <f t="shared" si="4"/>
+        <v>0.76259999999999994</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="5"/>
+        <v>0.68191795556991741</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="6"/>
+        <v>0.77</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="5"/>
+        <v>0.68352089373631564</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="7"/>
+        <v>2.3506319980364215E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>75</v>
       </c>
@@ -2677,8 +4327,28 @@
       <c r="G83">
         <v>4.1983433564053516E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R83">
+        <f t="shared" si="4"/>
+        <v>0.76259999999999994</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="5"/>
+        <v>0.68191795556991741</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="6"/>
+        <v>0.77</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="5"/>
+        <v>0.68352089373631564</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="7"/>
+        <v>2.3506319980364215E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>63</v>
       </c>
@@ -2700,8 +4370,28 @@
       <c r="G84">
         <v>8.2900272209848157E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R84">
+        <f t="shared" si="4"/>
+        <v>0.61640000000000006</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="5"/>
+        <v>0.64939934264724652</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="6"/>
+        <v>0.62979999999999992</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="5"/>
+        <v>0.65244411141700853</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="7"/>
+        <v>4.688592318788232E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>76</v>
       </c>
@@ -2723,8 +4413,28 @@
       <c r="G85">
         <v>2.0427781783225071E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R85">
+        <f t="shared" si="4"/>
+        <v>0.6644000000000001</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="5"/>
+        <v>0.66024809369382687</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="6"/>
+        <v>0.69839999999999991</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="5"/>
+        <v>0.66783293616007122</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="7"/>
+        <v>1.1487867270937754E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>77</v>
       </c>
@@ -2746,8 +4456,28 @@
       <c r="G86">
         <v>-5.3380158033362567E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R86">
+        <f t="shared" si="4"/>
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="5"/>
+        <v>0.5346941574949895</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="6"/>
+        <v>7.8200000000000047E-2</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="5"/>
+        <v>0.51954004334352344</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="7"/>
+        <v>-2.8341649032527654E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>78</v>
       </c>
@@ -2769,8 +4499,28 @@
       <c r="G87">
         <v>2.5804231894029691E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R87">
+        <f t="shared" si="4"/>
+        <v>0.16260000000000008</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="5"/>
+        <v>0.54056067485766901</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="6"/>
+        <v>0.16559999999999997</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="5"/>
+        <v>0.54130564814404658</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="7"/>
+        <v>1.3781492458246685E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>61</v>
       </c>
@@ -2792,8 +4542,28 @@
       <c r="G88">
         <v>3.8486209108402863E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R88">
+        <f t="shared" si="4"/>
+        <v>0.55899999999999994</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="5"/>
+        <v>0.63622112801980901</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="6"/>
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="5"/>
+        <v>0.64999108003512462</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="7"/>
+        <v>2.1643342870699005E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>79</v>
       </c>
@@ -2815,8 +4585,28 @@
       <c r="G89">
         <v>4.2707666026051708E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R89">
+        <f t="shared" si="4"/>
+        <v>0.87319999999999998</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="5"/>
+        <v>0.70541111489556196</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="6"/>
+        <v>0.95320000000000005</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="5"/>
+        <v>0.7217582682933833</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="7"/>
+        <v>2.3173937938646708E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>62</v>
       </c>
@@ -2838,8 +4628,28 @@
       <c r="G90">
         <v>-2.438640654499696E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R90">
+        <f t="shared" si="4"/>
+        <v>0.27120000000000011</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="5"/>
+        <v>0.56738747946399881</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="6"/>
+        <v>0.24019999999999997</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="5"/>
+        <v>0.55976293553443435</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="7"/>
+        <v>-1.3437984103504082E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>80</v>
       </c>
@@ -2861,8 +4671,28 @@
       <c r="G91">
         <v>-4.0370458323438123E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R91">
+        <f t="shared" si="4"/>
+        <v>0.6843999999999999</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="5"/>
+        <v>0.66472002323616663</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="6"/>
+        <v>0.67759999999999998</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="5"/>
+        <v>0.66320283194744589</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="7"/>
+        <v>-2.2824516122357036E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>81</v>
       </c>
@@ -2884,8 +4714,28 @@
       <c r="G92">
         <v>-1.1780924927935921E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R92">
+        <f t="shared" si="4"/>
+        <v>0.59580000000000011</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="5"/>
+        <v>0.64469482563726721</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="6"/>
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="5"/>
+        <v>0.64037681463220986</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="7"/>
+        <v>-6.6977596737946383E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>82</v>
       </c>
@@ -2907,8 +4757,28 @@
       <c r="G93">
         <v>1.6576819407008059E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R93">
+        <f t="shared" si="4"/>
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="5"/>
+        <v>0.618691970601293</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="6"/>
+        <v>0.50859999999999994</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="5"/>
+        <v>0.62447822448572798</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="7"/>
+        <v>9.3523985430285402E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>83</v>
       </c>
@@ -2930,8 +4800,28 @@
       <c r="G94">
         <v>1.313143262746953E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R94">
+        <f t="shared" si="4"/>
+        <v>0.6906000000000001</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="5"/>
+        <v>0.66610038644541414</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="6"/>
+        <v>0.7128000000000001</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="5"/>
+        <v>0.67101956199604629</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="7"/>
+        <v>7.3850363259551528E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>84</v>
       </c>
@@ -2953,8 +4843,28 @@
       <c r="G95">
         <v>-4.9930476551636932E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R95">
+        <f t="shared" si="4"/>
+        <v>0.58220000000000005</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="5"/>
+        <v>0.64157346904612</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="6"/>
+        <v>0.50320000000000009</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="5"/>
+        <v>0.62321104786433179</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="7"/>
+        <v>-2.8620917272481877E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>85</v>
       </c>
@@ -2976,8 +4886,28 @@
       <c r="G96">
         <v>-8.2762188025345424E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R96">
+        <f t="shared" si="4"/>
+        <v>0.54659999999999997</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="5"/>
+        <v>0.63334640586751356</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="6"/>
+        <v>0.53380000000000005</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="5"/>
+        <v>0.63036896470025627</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="7"/>
+        <v>-4.7011258604665136E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>86</v>
       </c>
@@ -2999,8 +4929,28 @@
       <c r="G97">
         <v>-1.342585608689096E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R97">
+        <f t="shared" si="4"/>
+        <v>0.32580000000000009</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="5"/>
+        <v>0.5807371026084075</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="6"/>
+        <v>0.30800000000000005</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="5"/>
+        <v>0.57639700890275547</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="7"/>
+        <v>-7.4734224594197526E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -3022,8 +4972,28 @@
       <c r="G98">
         <v>-9.2015855039638463E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R98">
+        <f t="shared" si="4"/>
+        <v>0.41280000000000006</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="5"/>
+        <v>0.60175907590427158</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="6"/>
+        <v>0.39979999999999993</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="5"/>
+        <v>0.59863960701501429</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="7"/>
+        <v>-5.183916643998472E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>88</v>
       </c>
@@ -3045,8 +5015,28 @@
       <c r="G99">
         <v>2.4099441907661109E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R99">
+        <f t="shared" si="4"/>
+        <v>0.57679999999999998</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="5"/>
+        <v>0.64033075446922483</v>
+      </c>
+      <c r="T99">
+        <f t="shared" si="6"/>
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="5"/>
+        <v>0.64903496788695381</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="7"/>
+        <v>1.359330839097986E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>89</v>
       </c>
@@ -3068,8 +5058,28 @@
       <c r="G100">
         <v>-6.6354625550660823E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R100">
+        <f t="shared" si="4"/>
+        <v>0.45280000000000009</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="5"/>
+        <v>0.61130475243129367</v>
+      </c>
+      <c r="T100">
+        <f t="shared" si="6"/>
+        <v>0.35640000000000005</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="5"/>
+        <v>0.58816869708475261</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="7"/>
+        <v>-3.7847007167086257E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>51</v>
       </c>
@@ -3091,14 +5101,41 @@
       <c r="G101">
         <v>-4.5339378583810616E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R101">
+        <f t="shared" si="4"/>
+        <v>0.49980000000000002</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="5"/>
+        <v>0.62241232930840684</v>
+      </c>
+      <c r="T101">
+        <f t="shared" si="6"/>
+        <v>0.4930000000000001</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="5"/>
+        <v>0.6208129005938251</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="7"/>
+        <v>-2.5697253079143617E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F102" t="s">
         <v>90</v>
       </c>
       <c r="G102">
         <f>AVERAGE(G2:G101)</f>
         <v>2.6573840312323443E-2</v>
+      </c>
+      <c r="U102" t="s">
+        <v>90</v>
+      </c>
+      <c r="V102">
+        <f>AVERAGE(V2:V101)</f>
+        <v>1.4698667617964088E-2</v>
       </c>
     </row>
   </sheetData>
